--- a/writing/Table6_PCA_Loadings.xlsx
+++ b/writing/Table6_PCA_Loadings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67BED146-291A-418E-9AEA-E308B170FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D52E8A-FA2E-4C9D-B7DB-6507702FD3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FA4AA05-E67F-4127-92BB-0EE1D4532893}"/>
+    <workbookView xWindow="2292" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{3FA4AA05-E67F-4127-92BB-0EE1D4532893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>PC1</t>
   </si>
@@ -73,9 +73,6 @@
     <t>CCHPL</t>
   </si>
   <si>
-    <t>PCA loadings</t>
-  </si>
-  <si>
     <t>Tmin Germination</t>
   </si>
   <si>
@@ -86,6 +83,39 @@
   </si>
   <si>
     <t>Tmax PTGR</t>
+  </si>
+  <si>
+    <t>HPS</t>
+  </si>
+  <si>
+    <t>CPS</t>
+  </si>
+  <si>
+    <t>PCA loadings-full</t>
+  </si>
+  <si>
+    <t>PCA loadings-spor</t>
+  </si>
+  <si>
+    <t>Germ.Tmin</t>
+  </si>
+  <si>
+    <t>Germ.Topt</t>
+  </si>
+  <si>
+    <t>Germ.Tmax</t>
+  </si>
+  <si>
+    <t>PTGR.Tmin</t>
+  </si>
+  <si>
+    <t>PTGR.Topt</t>
+  </si>
+  <si>
+    <t>PTGR.Tmax</t>
+  </si>
+  <si>
+    <t>PCA loadings-gameto</t>
   </si>
 </sst>
 </file>
@@ -95,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +146,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -163,7 +201,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -174,7 +251,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -183,11 +262,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -197,16 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,6 +315,21 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33CDEAB-D1DB-432C-B935-4A19D689E35A}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,275 +657,609 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2">
+        <v>-0.18855462000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.37676359999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.58617392000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.22431999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-6.9040829999999997E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.42151326</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.38517679999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.31269121999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.51085596</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.2863057</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.7644070000000004E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.29914429999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.10348151</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.62486551999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.32379659999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-0.23211382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.41746934000000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.45589560000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.36039269000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1225619</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-8.6591299999999993E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-0.20643228</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-0.1124161</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-0.64625659999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.62837469999999995</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1952132</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-7.2080850000000002E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.1495725</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-2.4665360000000001E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-6.8927909999999995E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.35397810000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.63938212000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.4695589999999998E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.35178759999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.51553561999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.46832679999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.21461981999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-0.46622766999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.3509256</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5.7931320000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.27148021</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.32515440000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.1141710000000001E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.57497909999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.52219738999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.31860485</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3259455</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9.5318180000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.23514514</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.12565960000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-8.9809089999999994E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.47601379999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.81515044000000003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-3.7136919999999997E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-0.1600705</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-5.2817349999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-6.4338199999999998E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-0.53372189999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-0.48923459000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.21512729999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-2.4890740000000001E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.25347163</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-0.59484859999999995</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-8.1602740000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7">
-        <v>-0.25627509999999998</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.58926321999999998</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-0.18913036</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.17541097</v>
-      </c>
-      <c r="F3" s="7">
-        <v>-0.130335702</v>
-      </c>
-      <c r="G3" s="7">
-        <v>-0.41679368999999999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.393242541</v>
-      </c>
-      <c r="I3" s="8">
-        <v>-0.41857918999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.45715230000000001</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-0.27009442</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.13544753000000001</v>
-      </c>
-      <c r="E4" s="7">
-        <v>-0.35776961000000002</v>
-      </c>
-      <c r="F4" s="7">
-        <v>-9.8674635999999996E-2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-0.68476711999999995</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.28493779899999999</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.10901083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.34425230000000001</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.55118562000000004</v>
-      </c>
-      <c r="D5" s="7">
-        <v>-0.31531682999999999</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.0117240000000002E-2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-0.102113422</v>
-      </c>
-      <c r="G5" s="7">
-        <v>5.9190140000000002E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>-8.3730049999999993E-3</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.68106873000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.61399899999999996</v>
+      </c>
+      <c r="C13">
+        <v>2.997996E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.34497499999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.14749226269999999</v>
+      </c>
+      <c r="F13">
+        <v>0.57379705000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.39000220000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>-0.35207470000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.43500809000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.20407169999999999</v>
+      </c>
+      <c r="E14">
+        <v>-0.57534331260000005</v>
+      </c>
+      <c r="F14">
+        <v>0.52050929000000001</v>
+      </c>
+      <c r="G14">
+        <v>-0.20788519999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.28479379999999999</v>
+      </c>
+      <c r="C15">
+        <v>-0.36796520999999999</v>
+      </c>
+      <c r="D15">
+        <v>-0.33835510000000002</v>
+      </c>
+      <c r="E15">
+        <v>-0.75803205309999999</v>
+      </c>
+      <c r="F15">
+        <v>-8.7440820000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.29453590000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.1171181</v>
+      </c>
+      <c r="C16">
+        <v>-0.57752123</v>
+      </c>
+      <c r="D16">
+        <v>0.5799957</v>
+      </c>
+      <c r="E16">
+        <v>-0.14113540390000001</v>
+      </c>
+      <c r="F16">
+        <v>-3.8432460000000002E-2</v>
+      </c>
+      <c r="G16">
+        <v>-0.54310349999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.55199940000000003</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.28167219999999998</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8.7203899999999997E-3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-0.21178896</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-0.184324025</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.10923341</v>
-      </c>
-      <c r="H6" s="7">
-        <v>-0.48351843300000003</v>
-      </c>
-      <c r="I6" s="8">
-        <v>-0.53974942000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>-0.19853950000000001</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4.8091250000000002E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>-0.2801749</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-0.81570993999999997</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-3.2225449999999998E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.33726957000000002</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.30935848199999999</v>
-      </c>
-      <c r="I7" s="8">
-        <v>-7.0177039999999996E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.2579977</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-0.36200685999999999</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-0.38075904999999999</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.31694241000000001</v>
-      </c>
-      <c r="F8" s="7">
-        <v>-0.57014125199999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.28731034</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.36427362899999999</v>
-      </c>
-      <c r="I8" s="8">
-        <v>-0.12905311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>-0.35383969999999998</v>
-      </c>
-      <c r="C9" s="7">
-        <v>8.6769860000000004E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.40726454000000001</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-0.15920226000000001</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-0.77279699099999999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>-4.9783099999999997E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>-0.202673249</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.18785279999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>-0.26634269999999999</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-0.23618279</v>
-      </c>
-      <c r="D10" s="9">
-        <v>-0.67604962000000002</v>
-      </c>
-      <c r="E10" s="9">
-        <v>-6.9224830000000001E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>-8.1159114000000004E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>-0.37837183000000002</v>
-      </c>
-      <c r="H10" s="9">
-        <v>-0.510721235</v>
-      </c>
-      <c r="I10" s="10">
-        <v>2.925494E-2</v>
+      <c r="B17">
+        <v>0.57796840000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.30259589999999997</v>
+      </c>
+      <c r="D17">
+        <v>-0.40866780000000003</v>
+      </c>
+      <c r="E17">
+        <v>1.7132909999999999E-4</v>
+      </c>
+      <c r="F17">
+        <v>4.4159009999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>-0.63673290000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.26490940000000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.49937533000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.47059380000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.2295523468</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.62350145000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.13244040000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-1.3344440000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.40564270000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.81221699999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.37623765399999998</v>
+      </c>
+      <c r="F22">
+        <v>-5.7551170000000003E-4</v>
+      </c>
+      <c r="G22">
+        <v>-0.18445716840000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.41866534</v>
+      </c>
+      <c r="C23">
+        <v>-0.45436120000000002</v>
+      </c>
+      <c r="D23">
+        <v>0.39006370000000001</v>
+      </c>
+      <c r="E23">
+        <v>-2.6217380000000002E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.7230723000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>0.6827266984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.40776308</v>
+      </c>
+      <c r="C24">
+        <v>-0.54459820000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.16476389999999999</v>
+      </c>
+      <c r="E24">
+        <v>-0.100689457</v>
+      </c>
+      <c r="F24">
+        <v>-1.7851472E-3</v>
+      </c>
+      <c r="G24">
+        <v>-0.70700306430000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.36766093999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.4528375</v>
+      </c>
+      <c r="D25">
+        <v>0.12781290000000001</v>
+      </c>
+      <c r="E25">
+        <v>-0.75119188699999995</v>
+      </c>
+      <c r="F25">
+        <v>-0.28131423210000001</v>
+      </c>
+      <c r="G25">
+        <v>7.1041159999999997E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.52398056000000004</v>
+      </c>
+      <c r="C26">
+        <v>0.30812850000000003</v>
+      </c>
+      <c r="D26">
+        <v>-0.2026133</v>
+      </c>
+      <c r="E26">
+        <v>0.12398468999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.75767613550000001</v>
+      </c>
+      <c r="G26">
+        <v>-1.9323564E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.49853819999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.18004919999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.32189830000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.51830351399999997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.58888257700000002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.4955444E-3</v>
       </c>
     </row>
   </sheetData>
